--- a/Linked_Files/Online Portfolio Usability Test/Online Portfolio Usability Test Resultaten Berekening.xlsx
+++ b/Linked_Files/Online Portfolio Usability Test/Online Portfolio Usability Test Resultaten Berekening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bavli Armanyous\OneDrive - Office 365 Fontys\ICT\Semester 2 Media Design (2.0)\4. Research\Portfolio Usability Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083A1FAD-83DA-4E56-A22A-C36E5B34F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8B273-04B2-4449-8F92-1E727DC5A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{206026F7-0593-4F0E-B4AA-63EF0A1B7584}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{206026F7-0593-4F0E-B4AA-63EF0A1B7584}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <r>
       <t>1.1</t>
@@ -86,9 +86,6 @@
     <t>Arjan</t>
   </si>
   <si>
-    <t>Guido, Pim, Stan, Anke, Arjan</t>
-  </si>
-  <si>
     <t>Antwoord</t>
   </si>
   <si>
@@ -96,18 +93,6 @@
   </si>
   <si>
     <t>Aantal Antwoorden</t>
-  </si>
-  <si>
-    <t>Guido, Stan, Anke, Arjan</t>
-  </si>
-  <si>
-    <t>Pim, Frank</t>
-  </si>
-  <si>
-    <t>Guido, Stan</t>
-  </si>
-  <si>
-    <t>Pim,  Arjan, Frank</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -126,9 +111,6 @@
       </rPr>
       <t>Op een schaal van 1 tot 5, hoe snel kon je de bewijslasten valideren die aantonen dat de leeruitkomst 'Research' is behaald?</t>
     </r>
-  </si>
-  <si>
-    <t>Guido, Stan, Anke</t>
   </si>
   <si>
     <r>
@@ -176,15 +158,6 @@
     </r>
   </si>
   <si>
-    <t>Pim, Stan</t>
-  </si>
-  <si>
-    <t>Anke, Frank, Arjan</t>
-  </si>
-  <si>
-    <t>Gemiddelde antwoord</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2.3 </t>
     </r>
@@ -200,7 +173,112 @@
     </r>
   </si>
   <si>
-    <t>Guido, Anke, Arjan</t>
+    <t>Heel Moeilijk</t>
+  </si>
+  <si>
+    <t>Moeilijk</t>
+  </si>
+  <si>
+    <t>Neutraal</t>
+  </si>
+  <si>
+    <t>Makkelijk</t>
+  </si>
+  <si>
+    <t>Heel Makkelijk</t>
+  </si>
+  <si>
+    <t>Schaal:</t>
+  </si>
+  <si>
+    <t>Zeer slecht georganiseerd</t>
+  </si>
+  <si>
+    <t>Zeer goed georganiseerd</t>
+  </si>
+  <si>
+    <t>Slecht georganiseerd</t>
+  </si>
+  <si>
+    <t>Goed georganiseerd</t>
+  </si>
+  <si>
+    <t>Duurde heel lang</t>
+  </si>
+  <si>
+    <t>Ging heel snel</t>
+  </si>
+  <si>
+    <t>Duurde even</t>
+  </si>
+  <si>
+    <t>Ging Snel</t>
+  </si>
+  <si>
+    <t>Gemiddeld antwoord</t>
+  </si>
+  <si>
+    <t>Zeer consistent</t>
+  </si>
+  <si>
+    <t>Helemaal geen consistentie</t>
+  </si>
+  <si>
+    <t>Weinig consistentie</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Het was heel erg storend</t>
+  </si>
+  <si>
+    <t>Ik had er helemaal geen last van</t>
+  </si>
+  <si>
+    <t>Best wel storend</t>
+  </si>
+  <si>
+    <t>Geen last van</t>
+  </si>
+  <si>
+    <t>3 Neutraal</t>
+  </si>
+  <si>
+    <t>1 Duurde heel lang</t>
+  </si>
+  <si>
+    <t>4 Ging snel</t>
+  </si>
+  <si>
+    <t>5 Ging heel snel</t>
+  </si>
+  <si>
+    <t>4 Goed georganiseerd</t>
+  </si>
+  <si>
+    <t>2 Slecht georganiseerd</t>
+  </si>
+  <si>
+    <t>4 Makkelijk</t>
+  </si>
+  <si>
+    <t>5 Heel Makkelijk</t>
+  </si>
+  <si>
+    <t>5 Heel makkelijk</t>
+  </si>
+  <si>
+    <t>4 Consistent</t>
+  </si>
+  <si>
+    <t>5 Zeer consistent</t>
+  </si>
+  <si>
+    <t>4 Geen last van</t>
+  </si>
+  <si>
+    <t>5 Ik had er helemaal geen last van</t>
   </si>
 </sst>
 </file>
@@ -208,7 +286,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -271,12 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -284,6 +362,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -432,42 +513,26 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CB97-4640-9667-50235508740C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17721894138232722"/>
-                  <c:y val="-0.15803222513852436"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-CDFE-42AB-B359-CC72055FF13A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:fgClr>
                 <a:bgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:bgClr>
               </a:pattFill>
               <a:ln>
@@ -488,7 +553,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -500,9 +565,10 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -530,10 +596,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Guido, Pim, Stan, Anke, Arjan</c:v>
+                  <c:v>4 Makkelijk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Frank</c:v>
+                  <c:v>5 Heel Makkelijk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,9 +626,10 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
@@ -610,6 +677,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-CB97-4640-9667-50235508740C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -629,21 +701,27 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000007-CB97-4640-9667-50235508740C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
+                  <c:numFmt formatCode="0%" sourceLinked="0"/>
                   <c:spPr>
                     <a:pattFill prst="pct75">
                       <a:fgClr>
-                        <a:schemeClr val="dk1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="75000"/>
                           <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:fgClr>
                       <a:bgClr>
-                        <a:schemeClr val="dk1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:bgClr>
                     </a:pattFill>
                     <a:ln>
@@ -676,11 +754,12 @@
                       <a:endParaRPr lang="nl-NL"/>
                     </a:p>
                   </c:txPr>
+                  <c:dLblPos val="bestFit"/>
                   <c:showLegendKey val="0"/>
                   <c:showVal val="1"/>
-                  <c:showCatName val="1"/>
+                  <c:showCatName val="0"/>
                   <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
+                  <c:showPercent val="1"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="1"/>
                   <c:leaderLines>
@@ -712,10 +791,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Guido, Pim, Stan, Anke, Arjan</c:v>
+                        <c:v>4 Makkelijk</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Frank</c:v>
+                        <c:v>5 Heel Makkelijk</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -767,7 +846,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5805555555555556"/>
           <c:y val="0.73894612131816861"/>
-          <c:w val="0.34088198575214201"/>
+          <c:w val="0.37977077865266839"/>
           <c:h val="0.15466559088607926"/>
         </c:manualLayout>
       </c:layout>
@@ -971,6 +1050,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-90F8-476C-BF99-963DE55553C3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -990,6 +1074,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-90F8-476C-BF99-963DE55553C3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1016,19 +1105,80 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:pattFill prst="pct75">
+                  <a:fgClr>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:sysClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-90F8-476C-BF99-963DE55553C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:fgClr>
                 <a:bgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:bgClr>
               </a:pattFill>
               <a:ln>
@@ -1061,10 +1211,10 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -1092,13 +1242,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Guido, Stan</c:v>
+                  <c:v>3 Neutraal</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pim,  Arjan, Frank</c:v>
+                  <c:v>4 Goed georganiseerd</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Anke</c:v>
+                  <c:v>2 Slecht georganiseerd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,12 +1278,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1179,6 +1329,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000007-90F8-476C-BF99-963DE55553C3}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1198,6 +1353,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000009-90F8-476C-BF99-963DE55553C3}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1217,21 +1377,27 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-90F8-476C-BF99-963DE55553C3}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
+                  <c:numFmt formatCode="0%" sourceLinked="0"/>
                   <c:spPr>
                     <a:pattFill prst="pct75">
                       <a:fgClr>
-                        <a:schemeClr val="dk1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="75000"/>
                           <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:fgClr>
                       <a:bgClr>
-                        <a:schemeClr val="dk1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:bgClr>
                     </a:pattFill>
                     <a:ln>
@@ -1264,9 +1430,9 @@
                       <a:endParaRPr lang="nl-NL"/>
                     </a:p>
                   </c:txPr>
-                  <c:dLblPos val="ctr"/>
+                  <c:dLblPos val="bestFit"/>
                   <c:showLegendKey val="0"/>
-                  <c:showVal val="0"/>
+                  <c:showVal val="1"/>
                   <c:showCatName val="0"/>
                   <c:showSerName val="0"/>
                   <c:showPercent val="1"/>
@@ -1301,13 +1467,13 @@
                     <c:strCache>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Guido, Stan</c:v>
+                        <c:v>3 Neutraal</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Pim,  Arjan, Frank</c:v>
+                        <c:v>4 Goed georganiseerd</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Anke</c:v>
+                        <c:v>2 Slecht georganiseerd</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1524,478 +1690,6 @@
       <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1.3'!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Antwoord</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-D0E4-4982-835F-2F523CC5C5FD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D0E4-4982-835F-2F523CC5C5FD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-D0E4-4982-835F-2F523CC5C5FD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D0E4-4982-835F-2F523CC5C5FD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DC73D928-E569-4D36-A195-A06B7AC9A8DE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{40D3F244-A86E-4A1A-8D04-C423F4BD51E0}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORIENAAM]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{08752363-F7CD-4767-B77A-132091F8746A}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D0E4-4982-835F-2F523CC5C5FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.16148488683689344"/>
-                  <c:y val="0.11007457780067573"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9729599A-CFF5-4990-B5F0-D74F508EB6AD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{DA9F152A-8644-40E7-A382-6E6F472BE8E8}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORIENAAM]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{43C39849-DBF1-4962-BCC6-7D768FC6234F}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D0E4-4982-835F-2F523CC5C5FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A330809-57A4-4A78-B68E-50225A12B249}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{30306506-6253-4275-A116-A1B7E6FA2337}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORIENAAM]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{08DC80F3-95F7-4F97-A9D8-9FE9856744AE}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D0E4-4982-835F-2F523CC5C5FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{94812981-8297-4066-A122-58F24C27B59B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{D5479983-07A1-4FCA-914A-702EB7A963A4}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORIENAAM]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>
-</a:t>
-                    </a:r>
-                    <a:fld id="{5C7B86A1-0958-4E3E-AB15-7B2B524F61E9}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D0E4-4982-835F-2F523CC5C5FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3'!$D$10:$H$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Arjan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Guido, Stan, Anke</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Frank</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pim</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3'!$D$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'1.3'!$D$11:$H$11</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0E4-4982-835F-2F523CC5C5FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2132,9 +1826,9 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -2163,16 +1857,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Arjan</c:v>
+                  <c:v>1 Duurde heel lang</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Guido, Stan, Anke</c:v>
+                  <c:v>3 Neutraal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Frank</c:v>
+                  <c:v>4 Ging snel</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pim</c:v>
+                  <c:v>5 Ging heel snel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2200,7 +1894,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0E4-4982-835F-2F523CC5C5FD}"/>
+              <c16:uniqueId val="{00000001-2070-40F2-9FE3-7DA7E78F75C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2215,6 +1909,238 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.3'!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Antwoord</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-NL"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.3'!$D$10:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1 Duurde heel lang</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3 Neutraal</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4 Ging snel</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5 Ging heel snel</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1.3'!$D$11:$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2070-40F2-9FE3-7DA7E78F75C7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -2395,192 +2321,6 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2.1'!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Antwoord</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-29CC-4A0C-894D-D7BD11227F47}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.21001531058617678"/>
-                  <c:y val="1.83526538349373E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-29CC-4A0C-894D-D7BD11227F47}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2.1'!$D$10:$H$10</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Guido, Stan, Anke, Arjan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pim, Frank</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.1'!$D$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29CC-4A0C-894D-D7BD11227F47}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2612,6 +2352,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FFFB-4162-BF65-C11205C93865}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2631,6 +2376,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FFFB-4162-BF65-C11205C93865}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2678,9 +2428,9 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -2709,10 +2459,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Guido, Stan, Anke, Arjan</c:v>
+                  <c:v>4 Makkelijk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pim, Frank</c:v>
+                  <c:v>5 Heel makkelijk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2749,6 +2499,199 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.1'!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Antwoord</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000002-29CC-4A0C-894D-D7BD11227F47}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000003-FFFB-4162-BF65-C11205C93865}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-NL"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.1'!$D$10:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>4 Makkelijk</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5 Heel makkelijk</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.1'!$D$11:$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-29CC-4A0C-894D-D7BD11227F47}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -2929,15 +2872,15 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2.2'!$C$11</c:f>
+              <c:f>'2.2'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Antwoord</c:v>
+                  <c:v>Aantal Antwoorden</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2962,7 +2905,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4F4D-41B7-B8FB-14B63DBC6F70}"/>
+                <c16:uniqueId val="{00000007-BE4B-4068-BE32-866A55EBA6FE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2984,6 +2927,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BE4B-4068-BE32-866A55EBA6FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3003,44 +2951,26 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BE4B-4068-BE32-866A55EBA6FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15527777777777782"/>
-                  <c:y val="0.19664370078740157"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4F4D-41B7-B8FB-14B63DBC6F70}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:fgClr>
                 <a:bgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:bgClr>
               </a:pattFill>
               <a:ln>
@@ -3073,192 +3003,9 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2.2'!$D$10:$H$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Guido</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pim, Stan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anke, Frank, Arjan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.2'!$D$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F4D-41B7-B8FB-14B63DBC6F70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2.2'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Aantal Antwoorden</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -3287,13 +3034,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Guido</c:v>
+                  <c:v>3 Neutraal</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pim, Stan</c:v>
+                  <c:v>4 Consistent</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Anke, Frank, Arjan</c:v>
+                  <c:v>5 Zeer consistent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3323,16 +3070,239 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.2'!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Antwoord</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000002-4F4D-41B7-B8FB-14B63DBC6F70}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000003-BE4B-4068-BE32-866A55EBA6FE}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-BE4B-4068-BE32-866A55EBA6FE}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-NL"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="bestFit"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.2'!$D$10:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3 Neutraal</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4 Consistent</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5 Zeer consistent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2.2'!$D$11:$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4F4D-41B7-B8FB-14B63DBC6F70}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3544,6 +3514,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5ABA-41F6-A066-41EE759C6B4B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3563,6 +3538,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5ABA-41F6-A066-41EE759C6B4B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3589,42 +3569,19 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10957549625200773"/>
-                  <c:y val="0.17908537474482356"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DAF7-4BD5-ACE9-18A98A7993BF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:fgClr>
                 <a:bgClr>
-                  <a:schemeClr val="dk1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:bgClr>
               </a:pattFill>
               <a:ln>
@@ -3657,10 +3614,10 @@
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -3688,13 +3645,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Pim, Stan</c:v>
+                  <c:v>3 Neutraal</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Guido, Anke, Arjan</c:v>
+                  <c:v>4 Geen last van</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Frank</c:v>
+                  <c:v>5 Ik had er helemaal geen last van</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3823,6 +3780,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-5ABA-41F6-A066-41EE759C6B4B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:dLbl>
@@ -3952,13 +3914,13 @@
                     <c:strCache>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Pim, Stan</c:v>
+                        <c:v>3 Neutraal</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Guido, Anke, Arjan</c:v>
+                        <c:v>4 Geen last van</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Frank</c:v>
+                        <c:v>5 Ik had er helemaal geen last van</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7985,6 +7947,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A6C842-9CE8-0525-8E33-FDAEC8F01005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12074071" y="1396999"/>
+          <a:ext cx="1641929" cy="616858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8033,23 +8062,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>46181</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>388257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1133929</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49893</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29028</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420F2D01-6A5F-E7C4-8AED-E7CB935F7CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD059B8D-E60C-CF95-14DE-80B488D981FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8074,16 +8103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>113392</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>20864</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13605</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1288142</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8115,16 +8144,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161472</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409281</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>535214</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1815</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>118995</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8156,16 +8185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111991</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84282</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>427183</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8490,10 +8519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D76DE6-2C8C-408C-846E-6BC832363101}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8501,7 +8530,8 @@
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="87" x14ac:dyDescent="0.35">
@@ -8566,7 +8596,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -8575,18 +8605,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -8597,7 +8627,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,4)</f>
@@ -8608,9 +8638,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8619,7 +8695,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8627,13 +8703,14 @@
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -8693,7 +8770,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -8702,21 +8779,21 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -8730,7 +8807,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,3)</f>
@@ -8745,9 +8822,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8760,8 +8882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C55F09-9E68-4D27-AA41-4175AE281A8E}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8769,16 +8891,16 @@
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -8838,7 +8960,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -8847,24 +8969,24 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8884,7 +9006,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,1)</f>
@@ -8907,9 +9029,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8922,8 +9089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDDC86-925B-40E6-8576-F133E86C974A}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8934,13 +9101,13 @@
     <col min="4" max="4" width="5.7265625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -9000,7 +9167,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -9009,19 +9176,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9041,7 +9208,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,1)</f>
@@ -9064,9 +9231,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9079,8 +9306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDF0B9-75CC-4835-9685-2BAD261157C1}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9090,14 +9317,14 @@
     <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7265625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -9157,7 +9384,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -9166,22 +9393,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9201,7 +9428,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,1)</f>
@@ -9224,9 +9451,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9239,8 +9511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2CD2BC-BBC0-468D-B0EA-1177FA880F7D}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9250,14 +9522,14 @@
     <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7265625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6328125" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -9317,7 +9589,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(B2:B7)</f>
@@ -9326,22 +9598,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9361,7 +9633,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>COUNTIF(B2:B7,1)</f>
@@ -9384,9 +9656,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
